--- a/data/trans_bre/P2A_enfcro_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P2A_enfcro_R-Estudios-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>14.56490555876169</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12.60810120676402</v>
+        <v>12.60810120676403</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2092105262337064</v>
@@ -649,7 +649,7 @@
         <v>0.2097032751389872</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.2504274838794031</v>
+        <v>0.2504274838794034</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>9.022756724419429</v>
+        <v>9.654775596789715</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6.807363875656448</v>
+        <v>6.705598512549516</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10.53694147658726</v>
+        <v>10.4008533712854</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7.481520040332799</v>
+        <v>7.602810006429787</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1384957574912691</v>
+        <v>0.1478559065723357</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08652472579814162</v>
+        <v>0.08620471939373915</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1441802622090939</v>
+        <v>0.1449326472155162</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.1374225436727794</v>
+        <v>0.1416828656695535</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>16.98013080627184</v>
+        <v>16.82754233371102</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>13.50417298062995</v>
+        <v>13.54125553816504</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>18.49965109465023</v>
+        <v>18.19901627856547</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17.70685903050394</v>
+        <v>17.11541175258623</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2803009272861247</v>
+        <v>0.2781231032114946</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1846226068060344</v>
+        <v>0.1852119420692898</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2788271502547854</v>
+        <v>0.273796092031231</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.3825556204169556</v>
+        <v>0.363931422075044</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>8.672961626815084</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>3.950597600064032</v>
+        <v>3.950597600064016</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4292875670561425</v>
@@ -749,7 +749,7 @@
         <v>0.1908110867822684</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.1304824034733524</v>
+        <v>0.1304824034733518</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>11.60809203002572</v>
+        <v>11.87537778757985</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>9.052794047259825</v>
+        <v>9.049101053672659</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5.259270691321541</v>
+        <v>5.623565102094064</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.002217676895449</v>
+        <v>1.123304235172153</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3153026519290262</v>
+        <v>0.3184641907868997</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1924822668127573</v>
+        <v>0.1953710870578117</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1112573287157449</v>
+        <v>0.1199567905089367</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.03085731050056331</v>
+        <v>0.03481076574111804</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>18.43643186403278</v>
+        <v>18.47570556052916</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>15.6917560713594</v>
+        <v>15.93911944526963</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>11.66442419448678</v>
+        <v>11.76376675209263</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6.634045407189667</v>
+        <v>6.691890453175958</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.543594661736989</v>
+        <v>0.5426366486207765</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3600311639697136</v>
+        <v>0.3664972879935094</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2662217703346306</v>
+        <v>0.2687301221628194</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.234545404950524</v>
+        <v>0.2321590174639311</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>7.875104781651432</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>2.578709086971337</v>
+        <v>2.578709086971342</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3390909469304283</v>
@@ -849,7 +849,7 @@
         <v>0.2023243952196146</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.0942374075198638</v>
+        <v>0.09423740751986402</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>6.374886759587303</v>
+        <v>5.81516485362497</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.9240837697532055</v>
+        <v>-0.3828953338198646</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.295000373810928</v>
+        <v>1.335967091140143</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.889626909053475</v>
+        <v>-2.23088525541334</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1613718383462061</v>
+        <v>0.1445512360111363</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.0138024396373641</v>
+        <v>-0.01164812674281154</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03039831642832182</v>
+        <v>0.03108120041898247</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.06467209151921691</v>
+        <v>-0.07394898016799648</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>18.58905342172399</v>
+        <v>18.88825364750235</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>13.24171583356838</v>
+        <v>13.66032124960596</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>14.60941185609867</v>
+        <v>13.89960324412417</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.17270807675785</v>
+        <v>7.1801655170989</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.5468184866688131</v>
+        <v>0.5438135746978878</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3180408192147866</v>
+        <v>0.3235515052300068</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3953808044550512</v>
+        <v>0.39750914652326</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.2969937007890676</v>
+        <v>0.2901298812615438</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>11.64875242551985</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6.730782601784013</v>
+        <v>6.730782601784008</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3611044407248133</v>
@@ -949,7 +949,7 @@
         <v>0.2341161352387182</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.2040497252937634</v>
+        <v>0.2040497252937632</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>13.46445379462059</v>
+        <v>13.6837813320017</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>11.42601580089681</v>
+        <v>11.34488083230249</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>9.1069074098495</v>
+        <v>9.128861381145493</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4.647660327455409</v>
+        <v>4.403739180512031</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2936179084289411</v>
+        <v>0.3006474873760261</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.205119187141481</v>
+        <v>0.2076819304019533</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1772087314884951</v>
+        <v>0.1808303588919671</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1363236808960071</v>
+        <v>0.131079008289362</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>18.29924242484364</v>
+        <v>18.41748662015708</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>16.18503432979717</v>
+        <v>16.101596110243</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>14.10517369535513</v>
+        <v>13.8577461013688</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8.872859576118469</v>
+        <v>8.787828174197058</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4219897655543887</v>
+        <v>0.4315469519430391</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3064778856737426</v>
+        <v>0.3079167771122712</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2908966348805258</v>
+        <v>0.2868710587788406</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2808943604259965</v>
+        <v>0.2826813752680437</v>
       </c>
     </row>
     <row r="16">
